--- a/1.xlsx
+++ b/1.xlsx
@@ -381,9 +381,12 @@
   <sheetData>
     <row r="1" spans="1:1" customFormat="false" ht="100" customHeight="1">
       <c r="A1" s="3" t="str">
-        <v>Тестовая надпись</v>
+        <v>Тестовая надпись1111</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1"/>
+  </mergeCells>
 </worksheet>
 </file>
--- a/1.xlsx
+++ b/1.xlsx
@@ -21,7 +21,7 @@
     </font>
     <font>
       <name val="Verdana"/>
-      <sz val="50"/>
+      <sz val="15"/>
     </font>
   </fonts>
   <fills count="2">
@@ -32,7 +32,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border/>
     <border>
       <top style="thick"/>
@@ -41,15 +41,32 @@
       <top style="thick"/>
       <bottom style="thick"/>
     </border>
+    <border>
+      <left style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <right style="thick"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,16 +394,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M3"/>
   <sheetData>
-    <row r="1" spans="1:1" customFormat="false" ht="100" customHeight="1">
-      <c r="A1" s="3" t="str">
-        <v>Тестовая надпись1111</v>
+    <row r="1" spans="1:13" customFormat="false" ht="25" customHeight="1">
+      <c r="A1" s="5" t="str">
+        <v>Ф-12</v>
+      </c>
+      <c r="G1" s="6" t="str">
+        <v/>
+      </c>
+      <c r="K1" s="5" t="str">
+        <v>10.02.2018</v>
+      </c>
+      <c r="M1" s="6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:1" customFormat="false">
+      <c r="A3" s="5" t="str">
+        <v>10.02.2018</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="A3:M1"/>
   </mergeCells>
 </worksheet>
 </file>
--- a/1.xlsx
+++ b/1.xlsx
@@ -404,7 +404,7 @@
         <v/>
       </c>
       <c r="K1" s="5" t="str">
-        <v>10.02.2018</v>
+        <v>13.02.2018</v>
       </c>
       <c r="M1" s="6" t="str">
         <v/>
@@ -412,7 +412,7 @@
     </row>
     <row r="3" spans="1:1" customFormat="false">
       <c r="A3" s="5" t="str">
-        <v>10.02.2018</v>
+        <v>13.02.2018</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -10,7 +10,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <name val="Verdana"/>
       <sz val="10"/>
@@ -21,7 +21,15 @@
     </font>
     <font>
       <name val="Verdana"/>
-      <sz val="15"/>
+      <sz val="22"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -32,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="13">
     <border/>
     <border>
       <top style="thick"/>
@@ -53,20 +61,101 @@
       <bottom style="thick"/>
     </border>
     <border>
-      <right style="thick"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="hairline"/>
+    </border>
+    <border>
+      <top style="hairline"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="hairline"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="hairline"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,32 +483,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:J11"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" customFormat="false" ht="25" customHeight="1">
-      <c r="A1" s="5" t="str">
-        <v>Ф-12</v>
-      </c>
-      <c r="G1" s="6" t="str">
-        <v/>
-      </c>
-      <c r="K1" s="5" t="str">
-        <v>13.02.2018</v>
-      </c>
-      <c r="M1" s="6" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:1" customFormat="false">
-      <c r="A3" s="5" t="str">
-        <v>13.02.2018</v>
+    <row r="1" spans="1:1" customFormat="false" ht="25" customHeight="1">
+      <c r="A1" s="1" t="str">
+        <v>ФОРСТОР-12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" customFormat="false" ht="25" customHeight="1">
+      <c r="A2" s="2" t="str">
+        <v>Стеллаж 2500х900х400 5п</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <v>Дата изготовления: 29.07.2018</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" customFormat="false" ht="15" customHeight="1">
+      <c r="A3" s="2" t="str">
+        <v>Стеллаж 2000х900х400 5п</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" customFormat="false" ht="25" customHeight="1">
+      <c r="A5" s="9" t="str">
+        <v>№ п/п</v>
+      </c>
+      <c r="B5" s="9" t="str">
+        <v>Наименование элементов</v>
+      </c>
+      <c r="C5" s="0" t="str">
+        <v/>
+      </c>
+      <c r="D5" s="0" t="str">
+        <v/>
+      </c>
+      <c r="E5" s="0" t="str">
+        <v/>
+      </c>
+      <c r="F5" s="9" t="str">
+        <v>Размеры</v>
+      </c>
+      <c r="G5" s="0" t="str">
+        <v/>
+      </c>
+      <c r="H5" s="0" t="str">
+        <v/>
+      </c>
+      <c r="I5" s="16" t="str">
+        <v>Необходимо изготовить</v>
+      </c>
+      <c r="J5" s="16" t="str">
+        <v>Изготовлено</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" customFormat="false">
+      <c r="A8" s="21">
+        <v>1</v>
+      </c>
+      <c r="B8" s="26" t="str">
+        <v>Стойка ПК 2500</v>
+      </c>
+      <c r="C8" s="0" t="str">
+        <v/>
+      </c>
+      <c r="D8" s="0" t="str">
+        <v/>
+      </c>
+      <c r="E8" s="0" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:5" customFormat="false">
+      <c r="A9" s="21">
+        <v>2</v>
+      </c>
+      <c r="B9" s="26" t="str">
+        <v>Полка ПК 900х400</v>
+      </c>
+      <c r="C9" s="0" t="str">
+        <v/>
+      </c>
+      <c r="D9" s="0" t="str">
+        <v/>
+      </c>
+      <c r="E9" s="0" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:5" customFormat="false">
+      <c r="A10" s="21">
+        <v>3</v>
+      </c>
+      <c r="B10" s="26" t="str">
+        <v>Стойка ПК 2000</v>
+      </c>
+      <c r="C10" s="0" t="str">
+        <v/>
+      </c>
+      <c r="D10" s="0" t="str">
+        <v/>
+      </c>
+      <c r="E10" s="0" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:5" customFormat="false">
+      <c r="A11" s="21">
+        <v>4</v>
+      </c>
+      <c r="B11" s="26" t="str">
+        <v>Упаковка стеллажа ПК</v>
+      </c>
+      <c r="C11" s="0" t="str">
+        <v/>
+      </c>
+      <c r="D11" s="0" t="str">
+        <v/>
+      </c>
+      <c r="E11" s="0" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="13">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="A3:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:E7"/>
+    <mergeCell ref="F5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
   </mergeCells>
 </worksheet>
 </file>
--- a/1.xlsx
+++ b/1.xlsx
@@ -32,15 +32,25 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="c8c8c8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="9">
     <border/>
     <border>
       <top style="thick"/>
@@ -61,46 +71,25 @@
       <bottom style="thick"/>
     </border>
     <border>
-      <top style="thin"/>
+      <bottom style="thick"/>
     </border>
     <border>
-      <top style="thin"/>
       <bottom style="thin"/>
     </border>
     <border>
       <left style="thin"/>
-      <top style="thin"/>
       <bottom style="thin"/>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="hairline"/>
-    </border>
-    <border>
-      <top style="hairline"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="hairline"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="hairline"/>
       <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyFont="1"/>
@@ -151,11 +140,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,16 +475,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" customWidth="1"/>
     <col min="10" max="10" width="25.7109375" customWidth="1"/>
   </cols>
@@ -502,22 +494,22 @@
         <v>ФОРСТОР-12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" customFormat="false" ht="25" customHeight="1">
+    <row r="2" spans="1:7" customFormat="false" ht="25" customHeight="1">
       <c r="A2" s="2" t="str">
         <v>Стеллаж 2500х900х400 5п</v>
       </c>
-      <c r="D2" s="2">
+      <c r="F2" s="2">
         <v>5.0</v>
       </c>
-      <c r="F2" s="3" t="str">
+      <c r="G2" s="3" t="str">
         <v>Дата изготовления: 29.07.2018</v>
       </c>
     </row>
-    <row r="3" spans="1:4" customFormat="false" ht="15" customHeight="1">
+    <row r="3" spans="1:6" customFormat="false" ht="15" customHeight="1">
       <c r="A3" s="2" t="str">
         <v>Стеллаж 2000х900х400 5п</v>
       </c>
-      <c r="D3" s="2">
+      <c r="F3" s="2">
         <v>3.0</v>
       </c>
     </row>
@@ -553,80 +545,458 @@
         <v>Изготовлено</v>
       </c>
     </row>
-    <row r="8" spans="1:5" customFormat="false">
-      <c r="A8" s="21">
+    <row r="7" spans="1:10" customFormat="false">
+      <c r="A7" s="18" t="str">
+        <v/>
+      </c>
+      <c r="B7" s="18" t="str">
+        <v/>
+      </c>
+      <c r="C7" s="18" t="str">
+        <v/>
+      </c>
+      <c r="D7" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E7" s="18" t="str">
+        <v/>
+      </c>
+      <c r="F7" s="18" t="str">
+        <v/>
+      </c>
+      <c r="G7" s="18" t="str">
+        <v/>
+      </c>
+      <c r="H7" s="18" t="str">
+        <v/>
+      </c>
+      <c r="I7" s="18" t="str">
+        <v/>
+      </c>
+      <c r="J7" s="18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:10" customFormat="false">
+      <c r="A8" s="22">
         <v>1</v>
       </c>
-      <c r="B8" s="26" t="str">
+      <c r="B8" s="27" t="str">
         <v>Стойка ПК 2500</v>
       </c>
-      <c r="C8" s="0" t="str">
-        <v/>
-      </c>
-      <c r="D8" s="0" t="str">
-        <v/>
-      </c>
-      <c r="E8" s="0" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:5" customFormat="false">
-      <c r="A9" s="21">
+      <c r="F8" s="22" t="str">
+        <v>L=2500</v>
+      </c>
+      <c r="G8" s="22" t="str">
+        <v>A=10</v>
+      </c>
+      <c r="H8" s="22" t="str">
+        <v>B=200</v>
+      </c>
+      <c r="I8" s="22">
+        <v>20.0</v>
+      </c>
+      <c r="J8" s="22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:10" customFormat="false">
+      <c r="A9" s="28">
         <v>2</v>
       </c>
-      <c r="B9" s="26" t="str">
+      <c r="B9" s="29" t="str">
+        <v xml:space="preserve">     Обрубка стойки ПК</v>
+      </c>
+      <c r="F9" s="28" t="str">
+        <v/>
+      </c>
+      <c r="G9" s="28" t="str">
+        <v/>
+      </c>
+      <c r="H9" s="28" t="str">
+        <v/>
+      </c>
+      <c r="I9" s="28">
+        <v>20.0</v>
+      </c>
+      <c r="J9" s="28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10" customFormat="false">
+      <c r="A10" s="28">
+        <v>3</v>
+      </c>
+      <c r="B10" s="29" t="str">
+        <v xml:space="preserve">     Уголок 34х34</v>
+      </c>
+      <c r="F10" s="28" t="str">
+        <v/>
+      </c>
+      <c r="G10" s="28" t="str">
+        <v/>
+      </c>
+      <c r="H10" s="28" t="str">
+        <v/>
+      </c>
+      <c r="I10" s="28">
+        <v>50.0</v>
+      </c>
+      <c r="J10" s="28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:10" customFormat="false">
+      <c r="A11" s="28">
+        <v>4</v>
+      </c>
+      <c r="B11" s="29" t="str">
+        <v xml:space="preserve">     Рубка зацепа СК</v>
+      </c>
+      <c r="F11" s="28" t="str">
+        <v/>
+      </c>
+      <c r="G11" s="28" t="str">
+        <v/>
+      </c>
+      <c r="H11" s="28" t="str">
+        <v/>
+      </c>
+      <c r="I11" s="28">
+        <v>20.0</v>
+      </c>
+      <c r="J11" s="28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" customFormat="false">
+      <c r="A12" s="22">
+        <v>5</v>
+      </c>
+      <c r="B12" s="27" t="str">
         <v>Полка ПК 900х400</v>
       </c>
-      <c r="C9" s="0" t="str">
-        <v/>
-      </c>
-      <c r="D9" s="0" t="str">
-        <v/>
-      </c>
-      <c r="E9" s="0" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:5" customFormat="false">
-      <c r="A10" s="21">
-        <v>3</v>
-      </c>
-      <c r="B10" s="26" t="str">
+      <c r="F12" s="22" t="str">
+        <v/>
+      </c>
+      <c r="G12" s="22" t="str">
+        <v>A=990</v>
+      </c>
+      <c r="H12" s="22" t="str">
+        <v>B=490</v>
+      </c>
+      <c r="I12" s="22">
+        <v>25.0</v>
+      </c>
+      <c r="J12" s="22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10" customFormat="false">
+      <c r="A13" s="28">
+        <v>6</v>
+      </c>
+      <c r="B13" s="29" t="str">
+        <v xml:space="preserve">     Гибка полки ПК</v>
+      </c>
+      <c r="F13" s="28" t="str">
+        <v/>
+      </c>
+      <c r="G13" s="28" t="str">
+        <v/>
+      </c>
+      <c r="H13" s="28" t="str">
+        <v/>
+      </c>
+      <c r="I13" s="28">
+        <v>100.0</v>
+      </c>
+      <c r="J13" s="28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10" customFormat="false">
+      <c r="A14" s="28">
+        <v>7</v>
+      </c>
+      <c r="B14" s="29" t="str">
+        <v xml:space="preserve">     Лист 2х1х0,7 Оц</v>
+      </c>
+      <c r="F14" s="28" t="str">
+        <v/>
+      </c>
+      <c r="G14" s="28" t="str">
+        <v/>
+      </c>
+      <c r="H14" s="28" t="str">
+        <v/>
+      </c>
+      <c r="I14" s="28">
+        <v>6.25</v>
+      </c>
+      <c r="J14" s="28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10" customFormat="false">
+      <c r="A15" s="28">
+        <v>8</v>
+      </c>
+      <c r="B15" s="29" t="str">
+        <v xml:space="preserve">     Пробивка уголка полки ПК</v>
+      </c>
+      <c r="F15" s="28" t="str">
+        <v/>
+      </c>
+      <c r="G15" s="28" t="str">
+        <v/>
+      </c>
+      <c r="H15" s="28" t="str">
+        <v/>
+      </c>
+      <c r="I15" s="28">
+        <v>100.0</v>
+      </c>
+      <c r="J15" s="28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10" customFormat="false">
+      <c r="A16" s="22">
+        <v>9</v>
+      </c>
+      <c r="B16" s="27" t="str">
         <v>Стойка ПК 2000</v>
       </c>
-      <c r="C10" s="0" t="str">
-        <v/>
-      </c>
-      <c r="D10" s="0" t="str">
-        <v/>
-      </c>
-      <c r="E10" s="0" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:5" customFormat="false">
-      <c r="A11" s="21">
-        <v>4</v>
-      </c>
-      <c r="B11" s="26" t="str">
+      <c r="F16" s="22" t="str">
+        <v>L=2000</v>
+      </c>
+      <c r="G16" s="22" t="str">
+        <v>A=10</v>
+      </c>
+      <c r="H16" s="22" t="str">
+        <v>B=200</v>
+      </c>
+      <c r="I16" s="22">
+        <v>12.0</v>
+      </c>
+      <c r="J16" s="22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:10" customFormat="false">
+      <c r="A17" s="28">
+        <v>10</v>
+      </c>
+      <c r="B17" s="29" t="str">
+        <v xml:space="preserve">     Обрубка стойки ПК</v>
+      </c>
+      <c r="F17" s="28" t="str">
+        <v/>
+      </c>
+      <c r="G17" s="28" t="str">
+        <v/>
+      </c>
+      <c r="H17" s="28" t="str">
+        <v/>
+      </c>
+      <c r="I17" s="28">
+        <v>12.0</v>
+      </c>
+      <c r="J17" s="28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:10" customFormat="false">
+      <c r="A18" s="28">
+        <v>11</v>
+      </c>
+      <c r="B18" s="29" t="str">
+        <v xml:space="preserve">     Уголок 34х34</v>
+      </c>
+      <c r="F18" s="28" t="str">
+        <v/>
+      </c>
+      <c r="G18" s="28" t="str">
+        <v/>
+      </c>
+      <c r="H18" s="28" t="str">
+        <v/>
+      </c>
+      <c r="I18" s="28">
+        <v>24.0</v>
+      </c>
+      <c r="J18" s="28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:10" customFormat="false">
+      <c r="A19" s="28">
+        <v>12</v>
+      </c>
+      <c r="B19" s="29" t="str">
+        <v xml:space="preserve">     Рубка зацепа СК</v>
+      </c>
+      <c r="F19" s="28" t="str">
+        <v/>
+      </c>
+      <c r="G19" s="28" t="str">
+        <v/>
+      </c>
+      <c r="H19" s="28" t="str">
+        <v/>
+      </c>
+      <c r="I19" s="28">
+        <v>12.0</v>
+      </c>
+      <c r="J19" s="28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:10" customFormat="false">
+      <c r="A20" s="22">
+        <v>13</v>
+      </c>
+      <c r="B20" s="27" t="str">
+        <v>Полка ПК 900х400</v>
+      </c>
+      <c r="F20" s="22" t="str">
+        <v/>
+      </c>
+      <c r="G20" s="22" t="str">
+        <v>A=990</v>
+      </c>
+      <c r="H20" s="22" t="str">
+        <v>B=490</v>
+      </c>
+      <c r="I20" s="22">
+        <v>15.0</v>
+      </c>
+      <c r="J20" s="22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:10" customFormat="false">
+      <c r="A21" s="28">
+        <v>14</v>
+      </c>
+      <c r="B21" s="29" t="str">
+        <v xml:space="preserve">     Гибка полки ПК</v>
+      </c>
+      <c r="F21" s="28" t="str">
+        <v/>
+      </c>
+      <c r="G21" s="28" t="str">
+        <v/>
+      </c>
+      <c r="H21" s="28" t="str">
+        <v/>
+      </c>
+      <c r="I21" s="28">
+        <v>60.0</v>
+      </c>
+      <c r="J21" s="28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:10" customFormat="false">
+      <c r="A22" s="28">
+        <v>15</v>
+      </c>
+      <c r="B22" s="29" t="str">
+        <v xml:space="preserve">     Лист 2х1х0,7 Оц</v>
+      </c>
+      <c r="F22" s="28" t="str">
+        <v/>
+      </c>
+      <c r="G22" s="28" t="str">
+        <v/>
+      </c>
+      <c r="H22" s="28" t="str">
+        <v/>
+      </c>
+      <c r="I22" s="28">
+        <v>3.75</v>
+      </c>
+      <c r="J22" s="28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:10" customFormat="false">
+      <c r="A23" s="28">
+        <v>16</v>
+      </c>
+      <c r="B23" s="29" t="str">
+        <v xml:space="preserve">     Пробивка уголка полки ПК</v>
+      </c>
+      <c r="F23" s="28" t="str">
+        <v/>
+      </c>
+      <c r="G23" s="28" t="str">
+        <v/>
+      </c>
+      <c r="H23" s="28" t="str">
+        <v/>
+      </c>
+      <c r="I23" s="28">
+        <v>60.0</v>
+      </c>
+      <c r="J23" s="28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:10" customFormat="false">
+      <c r="A24" s="22">
+        <v>17</v>
+      </c>
+      <c r="B24" s="27" t="str">
         <v>Упаковка стеллажа ПК</v>
       </c>
-      <c r="C11" s="0" t="str">
-        <v/>
-      </c>
-      <c r="D11" s="0" t="str">
-        <v/>
-      </c>
-      <c r="E11" s="0" t="str">
+      <c r="F24" s="22" t="str">
+        <v/>
+      </c>
+      <c r="G24" s="22" t="str">
+        <v/>
+      </c>
+      <c r="H24" s="22" t="str">
+        <v/>
+      </c>
+      <c r="I24" s="22">
+        <v>10.0</v>
+      </c>
+      <c r="J24" s="22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:10" customFormat="false">
+      <c r="A25" s="22">
+        <v>18</v>
+      </c>
+      <c r="B25" s="27" t="str">
+        <v>Упаковка стеллажа ПК</v>
+      </c>
+      <c r="F25" s="22" t="str">
+        <v/>
+      </c>
+      <c r="G25" s="22" t="str">
+        <v/>
+      </c>
+      <c r="H25" s="22" t="str">
+        <v/>
+      </c>
+      <c r="I25" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="J25" s="22" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="27">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="G2:J2"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:E7"/>
     <mergeCell ref="F5:H7"/>
@@ -636,6 +1006,20 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
   </mergeCells>
 </worksheet>
 </file>